--- a/medicine/Enfance/Prix_Saint-Exupéry/Prix_Saint-Exupéry.xlsx
+++ b/medicine/Enfance/Prix_Saint-Exupéry/Prix_Saint-Exupéry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prix_Saint-Exup%C3%A9ry</t>
+          <t>Prix_Saint-Exupéry</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le prix Saint-Exupéry est un prix littéraire créé en 1987 et qui récompense les œuvres littéraires destinées à la jeunesse qui portent les valeurs de l’œuvre d'Antoine de Saint-Exupéry.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prix_Saint-Exup%C3%A9ry</t>
+          <t>Prix_Saint-Exupéry</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Prix_Saint-Exup%C3%A9ry</t>
+          <t>Prix_Saint-Exupéry</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,7 +551,9 @@
           <t>Composition du conseil d'administration</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Présidente : Claudie Haignere
 Fondatrice : Solange Marchal
@@ -551,7 +567,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Prix_Saint-Exup%C3%A9ry</t>
+          <t>Prix_Saint-Exupéry</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -569,7 +585,9 @@
           <t>Lauréats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2003: 153 Jours en hiver, de Xavier-Laurent Petit, Flammarion, Castor-Poche, 2002.
 2004: Le Prince des apparences, de Catherine Zarcate, Bayard Jeunesse, 2003.
@@ -590,7 +608,7 @@
 De cape et de mots, de Flore Vesco, Didier Jeunesse, 2015.
 Le renard perché, texte Quitterie Simon, Illustratrice Magali Dulain, Casterman.
 Le Puits Mystérieux , de Imene Mebarki, éd. El Ibriz Edition, Algérie - Prix Saint-Exupéry (Catégorie Francophonie)
-2016[1]:
+2016:
 Dame cigogne mission terre d'Afrique, de Vanessa Solignat, ill. de Pascaline Mitarang, Éditions Millefeuille (Catégorie Album)
 Le Dernier Songe de Lord Scriven, de Eric Senabre, Didier Jeunesse (Catégorie Roman)
 Ingénieuse Eugénie, de Anne Wilsdorf, La Joie de lire, Suisse (Catégorie Francophonie)
@@ -615,7 +633,7 @@
 Le dernier des loups de Sébastien Perez et Justine Brax (Albin Michel) (album)
 Néo, tome 1 : La Chute du Soleil de Fer, de Michel Bussi (éditions Pkj) (roman)
 Rêve d'oiseau de Shenaz Patel et Emmanuelle Tchoukriel (l’Atelier des Nomades) (francophonie)
-2022[2] :
+2022 :
 Ouli, le cheval couleur nuage de Laurence Gillot et Qu Lan (éditions de l’Elan vert) (album)
 Les orphelins du rail de Fabien Clavel (éditions Rageot) (roman)
 La case 144 de Nadine Poirier et Geneviève Després (éditions d’Eux) (francophonie)</t>
